--- a/Example_Data.xlsx
+++ b/Example_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Richard\Jorge\2024_02_07_ImageData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix_9ny56v1\Python\Copenhagen\OrganoCellQuant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C82541C-FE43-4D7C-BBE4-BFA63E38C705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC730EF7-DCBE-4858-B4BC-A02A5DF71058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="3645" windowWidth="43200" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="262">
   <si>
     <t>Name</t>
   </si>
@@ -489,9 +489,6 @@
   </si>
   <si>
     <t>bad signal. Don’t know if I found the half point, or organoid bigger</t>
-  </si>
-  <si>
-    <t>cant say</t>
   </si>
   <si>
     <t>Bad data, wouldn’t trust, really strange form of organoid</t>
@@ -901,7 +898,7 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,9 +914,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -957,7 +954,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1063,7 +1060,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1205,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1216,11 +1213,11 @@
   <dimension ref="A1:T169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:T1048576"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="32.28515625" customWidth="1"/>
     <col min="6" max="6" width="56.5703125" customWidth="1"/>
@@ -1249,7 +1246,7 @@
         <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1278,7 +1275,7 @@
         <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H2">
         <v>1254</v>
@@ -1312,7 +1309,7 @@
         <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H3">
         <v>1317</v>
@@ -1341,7 +1338,7 @@
         <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H4">
         <v>254</v>
@@ -1370,7 +1367,7 @@
         <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H5">
         <v>328</v>
@@ -1396,7 +1393,7 @@
         <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H6">
         <v>979</v>
@@ -1422,7 +1419,7 @@
         <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7">
         <v>814</v>
@@ -1448,7 +1445,7 @@
         <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H8">
         <v>118</v>
@@ -1474,7 +1471,7 @@
         <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H9">
         <v>2507</v>
@@ -1500,7 +1497,7 @@
         <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H10">
         <v>392</v>
@@ -1526,7 +1523,7 @@
         <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H11">
         <v>334</v>
@@ -1552,7 +1549,7 @@
         <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H12">
         <v>1859</v>
@@ -1566,7 +1563,7 @@
         <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1589,7 +1586,7 @@
         <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H14">
         <v>475</v>
@@ -1615,7 +1612,7 @@
         <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H15">
         <v>776</v>
@@ -1641,7 +1638,7 @@
         <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H16">
         <v>1354</v>
@@ -1667,7 +1664,7 @@
         <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H17">
         <v>2212</v>
@@ -1693,7 +1690,7 @@
         <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H18">
         <v>208</v>
@@ -1719,7 +1716,7 @@
         <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H19">
         <v>77</v>
@@ -1745,7 +1742,7 @@
         <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H20">
         <v>473</v>
@@ -1771,7 +1768,7 @@
         <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H21">
         <v>1973</v>
@@ -1794,7 +1791,7 @@
         <v>4176</v>
       </c>
       <c r="G22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H22">
         <v>3740</v>
@@ -1817,7 +1814,7 @@
         <v>3532</v>
       </c>
       <c r="G23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H23">
         <v>3773</v>
@@ -1843,7 +1840,7 @@
         <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H24">
         <v>115</v>
@@ -1872,7 +1869,7 @@
         <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H25">
         <v>2127</v>
@@ -1898,7 +1895,7 @@
         <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H26">
         <v>3372</v>
@@ -1924,7 +1921,7 @@
         <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H27">
         <v>3602</v>
@@ -1950,7 +1947,7 @@
         <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28">
         <v>251</v>
@@ -1976,7 +1973,7 @@
         <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H29">
         <v>281</v>
@@ -2002,7 +1999,7 @@
         <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H30">
         <v>2237</v>
@@ -2028,7 +2025,7 @@
         <v>132</v>
       </c>
       <c r="G31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H31">
         <v>556</v>
@@ -2054,7 +2051,7 @@
         <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H32">
         <v>1291</v>
@@ -2080,7 +2077,7 @@
         <v>134</v>
       </c>
       <c r="G33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H33">
         <v>2047</v>
@@ -2106,7 +2103,7 @@
         <v>135</v>
       </c>
       <c r="G34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H34">
         <v>275</v>
@@ -2135,7 +2132,7 @@
         <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H35">
         <v>1057</v>
@@ -2161,7 +2158,7 @@
         <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H36">
         <v>3591</v>
@@ -2187,7 +2184,7 @@
         <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H37">
         <v>62</v>
@@ -2213,7 +2210,7 @@
         <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H38">
         <v>2417</v>
@@ -2239,7 +2236,7 @@
         <v>139</v>
       </c>
       <c r="G39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H39">
         <v>1419</v>
@@ -2265,7 +2262,7 @@
         <v>141</v>
       </c>
       <c r="G40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H40">
         <v>11</v>
@@ -2291,7 +2288,7 @@
         <v>114</v>
       </c>
       <c r="G41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H41">
         <v>23</v>
@@ -2317,7 +2314,7 @@
         <v>142</v>
       </c>
       <c r="G42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H42">
         <v>43</v>
@@ -2343,7 +2340,7 @@
         <v>114</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H43">
         <v>39</v>
@@ -2369,7 +2366,7 @@
         <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H44">
         <v>1120</v>
@@ -2395,7 +2392,7 @@
         <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H45">
         <v>67</v>
@@ -2424,7 +2421,7 @@
         <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H46">
         <v>186</v>
@@ -2447,7 +2444,7 @@
         <v>538</v>
       </c>
       <c r="G47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H47">
         <v>1356</v>
@@ -2473,7 +2470,7 @@
         <v>145</v>
       </c>
       <c r="G48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H48">
         <v>1122</v>
@@ -2499,7 +2496,7 @@
         <v>114</v>
       </c>
       <c r="G49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H49">
         <v>1597</v>
@@ -2525,7 +2522,7 @@
         <v>146</v>
       </c>
       <c r="G50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H50">
         <v>257</v>
@@ -2551,7 +2548,7 @@
         <v>146</v>
       </c>
       <c r="G51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H51">
         <v>30</v>
@@ -2577,7 +2574,7 @@
         <v>147</v>
       </c>
       <c r="G52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H52">
         <v>32</v>
@@ -2603,7 +2600,7 @@
         <v>150</v>
       </c>
       <c r="G53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H53">
         <v>73</v>
@@ -2632,7 +2629,7 @@
         <v>114</v>
       </c>
       <c r="G54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H54">
         <v>78</v>
@@ -2658,7 +2655,7 @@
         <v>129</v>
       </c>
       <c r="G55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H55">
         <v>15</v>
@@ -2681,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H56">
         <v>14</v>
@@ -2697,20 +2694,14 @@
       <c r="B57">
         <v>70</v>
       </c>
-      <c r="C57" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" t="s">
-        <v>151</v>
-      </c>
       <c r="E57">
         <v>597</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H57">
         <v>832</v>
@@ -2736,7 +2727,7 @@
         <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H58">
         <v>42</v>
@@ -2765,7 +2756,7 @@
         <v>149</v>
       </c>
       <c r="G59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H59">
         <v>1214</v>
@@ -2779,10 +2770,10 @@
         <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H60">
         <v>47</v>
@@ -2805,10 +2796,10 @@
         <v>1955</v>
       </c>
       <c r="F61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H61">
         <v>2450</v>
@@ -2837,7 +2828,7 @@
         <v>149</v>
       </c>
       <c r="G62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H62">
         <v>357</v>
@@ -2863,7 +2854,7 @@
         <v>149</v>
       </c>
       <c r="G63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H63">
         <v>292</v>
@@ -2889,7 +2880,7 @@
         <v>139</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H64">
         <v>1204</v>
@@ -2915,7 +2906,7 @@
         <v>149</v>
       </c>
       <c r="G65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H65">
         <v>2408</v>
@@ -2941,7 +2932,7 @@
         <v>149</v>
       </c>
       <c r="G66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H66">
         <v>760</v>
@@ -2955,10 +2946,10 @@
         <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H67">
         <v>2076</v>
@@ -2984,10 +2975,10 @@
         <v>6870</v>
       </c>
       <c r="F68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H68">
         <v>11400</v>
@@ -3013,10 +3004,10 @@
         <v>178</v>
       </c>
       <c r="F69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H69">
         <v>348</v>
@@ -3042,7 +3033,7 @@
         <v>114</v>
       </c>
       <c r="G70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H70">
         <v>563</v>
@@ -3065,10 +3056,10 @@
         <v>2048</v>
       </c>
       <c r="F71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H71">
         <v>2508</v>
@@ -3094,7 +3085,7 @@
         <v>114</v>
       </c>
       <c r="G72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H72">
         <v>268</v>
@@ -3117,10 +3108,10 @@
         <v>1741</v>
       </c>
       <c r="F73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H73">
         <v>3049</v>
@@ -3146,7 +3137,7 @@
         <v>114</v>
       </c>
       <c r="G74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H74">
         <v>2013</v>
@@ -3169,10 +3160,10 @@
         <v>809</v>
       </c>
       <c r="F75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H75">
         <v>808</v>
@@ -3201,7 +3192,7 @@
         <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H76">
         <v>282</v>
@@ -3227,7 +3218,7 @@
         <v>114</v>
       </c>
       <c r="G77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H77">
         <v>2594</v>
@@ -3250,10 +3241,10 @@
         <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H78">
         <v>60</v>
@@ -3279,7 +3270,7 @@
         <v>114</v>
       </c>
       <c r="G79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H79">
         <v>1399</v>
@@ -3308,13 +3299,13 @@
         <v>114</v>
       </c>
       <c r="G80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H80">
         <v>76</v>
       </c>
       <c r="I80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3337,13 +3328,13 @@
         <v>114</v>
       </c>
       <c r="G81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H81">
         <v>120</v>
       </c>
       <c r="I81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3366,7 +3357,7 @@
         <v>114</v>
       </c>
       <c r="G82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H82">
         <v>1119</v>
@@ -3392,13 +3383,13 @@
         <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H83">
         <v>338</v>
       </c>
       <c r="I83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3409,7 +3400,7 @@
         <v>124</v>
       </c>
       <c r="G84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H84" t="s">
         <v>95</v>
@@ -3426,7 +3417,7 @@
         <v>124</v>
       </c>
       <c r="G85" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H85">
         <v>13</v>
@@ -3449,10 +3440,10 @@
         <v>269</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H86">
         <v>227</v>
@@ -3478,16 +3469,16 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H87">
         <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3510,13 +3501,13 @@
         <v>114</v>
       </c>
       <c r="G88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H88">
         <v>422</v>
       </c>
       <c r="I88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3527,7 +3518,7 @@
         <v>124</v>
       </c>
       <c r="G89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H89">
         <v>33</v>
@@ -3553,10 +3544,10 @@
         <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H90">
         <v>20</v>
@@ -3570,7 +3561,7 @@
         <v>124</v>
       </c>
       <c r="G91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H91">
         <v>7</v>
@@ -3593,10 +3584,10 @@
         <v>235</v>
       </c>
       <c r="F92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H92">
         <v>306</v>
@@ -3604,7 +3595,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B93">
         <v>79</v>
@@ -3619,15 +3610,15 @@
         <v>785</v>
       </c>
       <c r="F93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B94">
         <v>40</v>
@@ -3645,12 +3636,12 @@
         <v>114</v>
       </c>
       <c r="G94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B95">
         <v>51</v>
@@ -3668,12 +3659,12 @@
         <v>114</v>
       </c>
       <c r="G95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B96">
         <v>22</v>
@@ -3691,12 +3682,12 @@
         <v>114</v>
       </c>
       <c r="G96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B97">
         <v>25</v>
@@ -3714,12 +3705,12 @@
         <v>114</v>
       </c>
       <c r="G97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B98">
         <v>41</v>
@@ -3737,12 +3728,12 @@
         <v>114</v>
       </c>
       <c r="G98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B99">
         <v>53</v>
@@ -3757,15 +3748,15 @@
         <v>517</v>
       </c>
       <c r="F99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B100">
         <v>59</v>
@@ -3780,15 +3771,15 @@
         <v>113</v>
       </c>
       <c r="F100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B101">
         <v>19</v>
@@ -3806,23 +3797,23 @@
         <v>114</v>
       </c>
       <c r="G101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>178</v>
+      </c>
+      <c r="F102" t="s">
         <v>179</v>
       </c>
-      <c r="F102" t="s">
-        <v>180</v>
-      </c>
       <c r="G102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B103">
         <v>43</v>
@@ -3840,12 +3831,12 @@
         <v>114</v>
       </c>
       <c r="G103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B104">
         <v>78</v>
@@ -3860,15 +3851,15 @@
         <v>504</v>
       </c>
       <c r="F104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B105">
         <v>50</v>
@@ -3886,15 +3877,15 @@
         <v>114</v>
       </c>
       <c r="G105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="C106">
         <v>157</v>
@@ -3906,15 +3897,15 @@
         <v>111</v>
       </c>
       <c r="F106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B107">
         <v>66</v>
@@ -3929,15 +3920,15 @@
         <v>433</v>
       </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G107" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B108">
         <v>26</v>
@@ -3955,18 +3946,18 @@
         <v>114</v>
       </c>
       <c r="G108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H108">
         <v>130</v>
       </c>
       <c r="I108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B109">
         <v>31</v>
@@ -3984,13 +3975,13 @@
         <v>114</v>
       </c>
       <c r="G109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H109">
         <v>195</v>
       </c>
       <c r="I109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4013,12 +4004,12 @@
         <v>114</v>
       </c>
       <c r="G110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B111">
         <v>29</v>
@@ -4036,12 +4027,12 @@
         <v>114</v>
       </c>
       <c r="G111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B112">
         <v>41</v>
@@ -4059,12 +4050,12 @@
         <v>114</v>
       </c>
       <c r="G112" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B113">
         <v>62</v>
@@ -4082,15 +4073,15 @@
         <v>114</v>
       </c>
       <c r="G113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="C114">
         <v>105</v>
@@ -4102,15 +4093,15 @@
         <v>125</v>
       </c>
       <c r="F114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B115">
         <v>44</v>
@@ -4128,12 +4119,12 @@
         <v>114</v>
       </c>
       <c r="G115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B116">
         <v>39</v>
@@ -4151,29 +4142,29 @@
         <v>114</v>
       </c>
       <c r="G116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H116">
         <v>441</v>
       </c>
       <c r="I116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F117" t="s">
         <v>124</v>
       </c>
       <c r="G117" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B118">
         <v>35</v>
@@ -4191,29 +4182,29 @@
         <v>114</v>
       </c>
       <c r="G118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H118">
         <v>195</v>
       </c>
       <c r="I118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B120">
         <v>32</v>
@@ -4231,18 +4222,18 @@
         <v>114</v>
       </c>
       <c r="G120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H120">
         <v>269</v>
       </c>
       <c r="I120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B121">
         <v>26</v>
@@ -4257,23 +4248,23 @@
         <v>140</v>
       </c>
       <c r="G121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F122" t="s">
         <v>124</v>
       </c>
       <c r="G122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B123">
         <v>47</v>
@@ -4291,12 +4282,12 @@
         <v>114</v>
       </c>
       <c r="G123" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B124">
         <v>45</v>
@@ -4311,15 +4302,15 @@
         <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B125">
         <v>59</v>
@@ -4337,12 +4328,12 @@
         <v>114</v>
       </c>
       <c r="G125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B126">
         <v>116</v>
@@ -4357,15 +4348,15 @@
         <v>3758</v>
       </c>
       <c r="F126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B127">
         <v>52</v>
@@ -4380,15 +4371,15 @@
         <v>1183</v>
       </c>
       <c r="F127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B128">
         <v>70</v>
@@ -4406,12 +4397,12 @@
         <v>114</v>
       </c>
       <c r="G128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B129">
         <v>41</v>
@@ -4426,15 +4417,15 @@
         <v>90</v>
       </c>
       <c r="F129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G129" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B130">
         <v>105</v>
@@ -4452,12 +4443,12 @@
         <v>114</v>
       </c>
       <c r="G130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B131">
         <v>46</v>
@@ -4475,12 +4466,12 @@
         <v>114</v>
       </c>
       <c r="G131" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B132">
         <v>68</v>
@@ -4498,12 +4489,12 @@
         <v>114</v>
       </c>
       <c r="G132" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B133">
         <v>80</v>
@@ -4521,12 +4512,12 @@
         <v>114</v>
       </c>
       <c r="G133" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B134">
         <v>34</v>
@@ -4544,18 +4535,18 @@
         <v>114</v>
       </c>
       <c r="G134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H134">
         <v>170</v>
       </c>
       <c r="I134" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B135">
         <v>73</v>
@@ -4573,12 +4564,12 @@
         <v>114</v>
       </c>
       <c r="G135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B136">
         <v>44</v>
@@ -4593,15 +4584,15 @@
         <v>184</v>
       </c>
       <c r="F136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B137">
         <v>22</v>
@@ -4619,15 +4610,15 @@
         <v>114</v>
       </c>
       <c r="G137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>221</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="C138">
         <v>107</v>
@@ -4642,12 +4633,12 @@
         <v>114</v>
       </c>
       <c r="G138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B139">
         <v>30</v>
@@ -4665,12 +4656,12 @@
         <v>114</v>
       </c>
       <c r="G139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B140">
         <v>38</v>
@@ -4688,12 +4679,12 @@
         <v>114</v>
       </c>
       <c r="G140" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B141">
         <v>56</v>
@@ -4711,12 +4702,12 @@
         <v>114</v>
       </c>
       <c r="G141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B142">
         <v>38</v>
@@ -4734,23 +4725,23 @@
         <v>114</v>
       </c>
       <c r="G142" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>227</v>
+      </c>
+      <c r="F143" t="s">
         <v>228</v>
       </c>
-      <c r="F143" t="s">
-        <v>229</v>
-      </c>
       <c r="G143" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B144">
         <v>31</v>
@@ -4768,12 +4759,12 @@
         <v>114</v>
       </c>
       <c r="G144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B145">
         <v>24</v>
@@ -4791,12 +4782,12 @@
         <v>114</v>
       </c>
       <c r="G145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B146">
         <v>39</v>
@@ -4811,23 +4802,23 @@
         <v>464</v>
       </c>
       <c r="G146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>232</v>
+      </c>
+      <c r="F147" t="s">
         <v>233</v>
       </c>
-      <c r="F147" t="s">
-        <v>234</v>
-      </c>
       <c r="G147" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B148">
         <v>72</v>
@@ -4842,15 +4833,15 @@
         <v>498</v>
       </c>
       <c r="F148" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G148" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B149">
         <v>33</v>
@@ -4868,12 +4859,12 @@
         <v>114</v>
       </c>
       <c r="G149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B150">
         <v>85</v>
@@ -4888,15 +4879,15 @@
         <v>4647</v>
       </c>
       <c r="F150" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G150" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B151">
         <v>36</v>
@@ -4914,12 +4905,12 @@
         <v>114</v>
       </c>
       <c r="G151" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B152">
         <v>20</v>
@@ -4937,12 +4928,12 @@
         <v>114</v>
       </c>
       <c r="G152" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B153">
         <v>35</v>
@@ -4960,12 +4951,12 @@
         <v>114</v>
       </c>
       <c r="G153" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B154">
         <v>122</v>
@@ -4980,15 +4971,15 @@
         <v>2955</v>
       </c>
       <c r="F154" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B155">
         <v>108</v>
@@ -5006,12 +4997,12 @@
         <v>114</v>
       </c>
       <c r="G155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B156">
         <v>83</v>
@@ -5029,12 +5020,12 @@
         <v>114</v>
       </c>
       <c r="G156" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B157">
         <v>36</v>
@@ -5052,12 +5043,12 @@
         <v>114</v>
       </c>
       <c r="G157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B158">
         <v>72</v>
@@ -5075,12 +5066,12 @@
         <v>114</v>
       </c>
       <c r="G158" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B159">
         <v>67</v>
@@ -5098,12 +5089,12 @@
         <v>114</v>
       </c>
       <c r="G159" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B160">
         <v>25</v>
@@ -5121,12 +5112,12 @@
         <v>114</v>
       </c>
       <c r="G160" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B161">
         <v>50</v>
@@ -5144,12 +5135,12 @@
         <v>114</v>
       </c>
       <c r="G161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B162">
         <v>29</v>
@@ -5167,12 +5158,12 @@
         <v>114</v>
       </c>
       <c r="G162" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B163">
         <v>70</v>
@@ -5190,23 +5181,23 @@
         <v>114</v>
       </c>
       <c r="G163" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>255</v>
+      </c>
+      <c r="F164" t="s">
         <v>256</v>
       </c>
-      <c r="F164" t="s">
-        <v>257</v>
-      </c>
       <c r="G164" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B165">
         <v>46</v>
@@ -5224,7 +5215,7 @@
         <v>114</v>
       </c>
       <c r="G165" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H165">
         <v>163</v>
@@ -5232,7 +5223,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B166">
         <v>28</v>
@@ -5250,12 +5241,12 @@
         <v>114</v>
       </c>
       <c r="G166" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B167">
         <v>44</v>
@@ -5273,12 +5264,12 @@
         <v>114</v>
       </c>
       <c r="G167" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B168">
         <v>35</v>
@@ -5296,12 +5287,12 @@
         <v>114</v>
       </c>
       <c r="G168" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B169">
         <v>94</v>
@@ -5316,10 +5307,10 @@
         <v>1699</v>
       </c>
       <c r="F169" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G169" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
